--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_22_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_22_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655046.4383935281</v>
+        <v>584121.0914319063</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10333863.53660934</v>
+        <v>10332922.33510925</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7566408.126310139</v>
+        <v>7566681.534259024</v>
       </c>
     </row>
     <row r="11">
@@ -661,28 +661,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>81.61928733384137</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>33.05042947603805</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358025</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422313</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="D3" t="n">
-        <v>81.61928733384138</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>81.61928733384133</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="W3" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>92.66494928910237</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.04004747064909</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>63.18530757464288</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>98.04004747064909</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>98.04004747064909</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>23.16836623750476</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>81.61928733384147</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.04004747064909</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>65.25555743606904</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>32.80684643104416</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,28 +1019,28 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.445589275287394</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>83.8857281403962</v>
+        <v>84.56947841277969</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>98.04004747064909</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>89.71475821016426</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>139.2987682391617</v>
       </c>
       <c r="D8" t="n">
-        <v>133.4802209296316</v>
+        <v>139.2987682391617</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.04641172483244</v>
+        <v>8.9909474938203</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.007567919119481</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.76653441538456</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.4802209296316</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.74886453548297</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>113.7034075712333</v>
       </c>
       <c r="V8" t="n">
-        <v>133.4802209296316</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>139.2987682391617</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>101.7600991884982</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>133.4802209296316</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>133.4802209296316</v>
+        <v>20.93425587655547</v>
       </c>
       <c r="U9" t="n">
-        <v>133.4802209296316</v>
+        <v>139.2987682391617</v>
       </c>
       <c r="V9" t="n">
-        <v>117.5693785948194</v>
+        <v>139.2987682391617</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>139.2987682391617</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.17526832413813</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.307738753965509</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>15.08252089189894</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>87.48405096487896</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>72.46905619685177</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>117.317348471319</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>122.27728625323</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8.54416350709154</v>
       </c>
       <c r="F13" t="n">
-        <v>7.256470454726985</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4515011109318</v>
@@ -1548,10 +1548,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.15430933923915</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>105.0430334365246</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>221.7932345995493</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>81.27086566804986</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>196.1606200328935</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>108.0728512656385</v>
+        <v>53.59543950356233</v>
       </c>
       <c r="S16" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T16" t="n">
-        <v>144.2957156879723</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>220.3515850768459</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>411.8707348436268</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>148.0057396406668</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1931,13 +1931,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>110.0901762919631</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>231.6903025147192</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2013,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>88.22981158427569</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.15430933923915</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1801837919251</v>
+        <v>114.2196258393483</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T20" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>66.91596461221233</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>16.15632264295092</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>192.7632183107638</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>32.19847691108464</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>185.9158911817642</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>221.5717309955942</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.686500484040844</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.91073356940604</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.56193867130465</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>199.5961109774301</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>150.4026958753531</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>87.93270968653134</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7.160548332619419</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>356.4798507233502</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>35.12124230888558</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>74.98619773129313</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>88.01624809068292</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>12.80633068795266</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>87.62154955555324</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159616</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>318.4070179429954</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.3516656678852</v>
+        <v>114.3606976213222</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>148.6151831671125</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>5.732180395783762</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>87.93270968653144</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>240.2451530332447</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>83.13723023285809</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>108.5714959765558</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>153.2230134806003</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4030,13 +4030,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>225.7250450145775</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>150.9066036119062</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>48.2153423408586</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>134.7466378365499</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>253.1663421328486</v>
+        <v>277.0588382785283</v>
       </c>
       <c r="C2" t="n">
-        <v>253.1663421328486</v>
+        <v>183.4578794006471</v>
       </c>
       <c r="D2" t="n">
-        <v>253.1663421328486</v>
+        <v>89.85692052276595</v>
       </c>
       <c r="E2" t="n">
-        <v>253.1663421328486</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="F2" t="n">
-        <v>253.1663421328486</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="G2" t="n">
-        <v>219.7820699348304</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="H2" t="n">
-        <v>126.1811110569491</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="I2" t="n">
-        <v>32.58015217906785</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="K2" t="n">
-        <v>21.18357364821467</v>
+        <v>21.18357364821463</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940388</v>
+        <v>75.16870670940398</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056153</v>
+        <v>166.9070065056151</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018267</v>
+        <v>258.6453063018264</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037301</v>
+        <v>337.6943058037298</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564098</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="Q2" t="n">
-        <v>346.7673010107299</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="R2" t="n">
-        <v>253.1663421328486</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="S2" t="n">
-        <v>253.1663421328486</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="T2" t="n">
-        <v>253.1663421328486</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1663421328486</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="V2" t="n">
-        <v>253.1663421328486</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="W2" t="n">
-        <v>253.1663421328486</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="X2" t="n">
-        <v>253.1663421328486</v>
+        <v>277.0588382785283</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.1663421328486</v>
+        <v>277.0588382785283</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183.4578794006472</v>
+        <v>101.0141548210094</v>
       </c>
       <c r="C3" t="n">
-        <v>183.4578794006472</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="D3" t="n">
-        <v>101.0141548210095</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="E3" t="n">
-        <v>101.0141548210095</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="F3" t="n">
-        <v>101.0141548210095</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="G3" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="H3" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="I3" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="K3" t="n">
-        <v>28.29609765201177</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="L3" t="n">
-        <v>102.698277264897</v>
+        <v>81.81537555601339</v>
       </c>
       <c r="M3" t="n">
-        <v>194.4365770611084</v>
+        <v>173.5536753522247</v>
       </c>
       <c r="N3" t="n">
-        <v>279.9930347572616</v>
+        <v>265.2919751484361</v>
       </c>
       <c r="O3" t="n">
-        <v>370.6597971564098</v>
+        <v>317.224793251401</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564098</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="Q3" t="n">
-        <v>370.6597971564098</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="R3" t="n">
-        <v>370.6597971564098</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="S3" t="n">
-        <v>370.6597971564098</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="T3" t="n">
-        <v>370.6597971564098</v>
+        <v>370.6597971564095</v>
       </c>
       <c r="U3" t="n">
-        <v>370.6597971564098</v>
+        <v>288.2160725767718</v>
       </c>
       <c r="V3" t="n">
-        <v>370.6597971564098</v>
+        <v>194.6151136988906</v>
       </c>
       <c r="W3" t="n">
-        <v>277.0588382785285</v>
+        <v>194.6151136988906</v>
       </c>
       <c r="X3" t="n">
-        <v>183.4578794006472</v>
+        <v>194.6151136988906</v>
       </c>
       <c r="Y3" t="n">
-        <v>183.4578794006472</v>
+        <v>101.0141548210094</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128196</v>
+        <v>7.41319594312819</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>293.1298389021427</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="C5" t="n">
-        <v>293.1298389021427</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="D5" t="n">
-        <v>293.1298389021427</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="E5" t="n">
-        <v>293.1298389021427</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="F5" t="n">
-        <v>293.1298389021427</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="G5" t="n">
-        <v>229.3062958974529</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="H5" t="n">
-        <v>130.2759449169993</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="I5" t="n">
-        <v>31.24559393654562</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="J5" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="K5" t="n">
-        <v>24.20558058509584</v>
+        <v>21.1835736482148</v>
       </c>
       <c r="L5" t="n">
-        <v>81.40631770818692</v>
+        <v>75.16870670940412</v>
       </c>
       <c r="M5" t="n">
-        <v>176.7225966038353</v>
+        <v>166.9070065056155</v>
       </c>
       <c r="N5" t="n">
-        <v>273.7822435997779</v>
+        <v>258.6453063018268</v>
       </c>
       <c r="O5" t="n">
-        <v>356.26449633036</v>
+        <v>337.6943058037302</v>
       </c>
       <c r="P5" t="n">
-        <v>392.1601898825963</v>
+        <v>370.6597971564099</v>
       </c>
       <c r="Q5" t="n">
-        <v>392.1601898825963</v>
+        <v>370.6597971564099</v>
       </c>
       <c r="R5" t="n">
-        <v>392.1601898825963</v>
+        <v>370.6597971564099</v>
       </c>
       <c r="S5" t="n">
-        <v>392.1601898825963</v>
+        <v>370.6597971564099</v>
       </c>
       <c r="T5" t="n">
-        <v>392.1601898825963</v>
+        <v>277.0588382785286</v>
       </c>
       <c r="U5" t="n">
-        <v>392.1601898825963</v>
+        <v>183.4578794006474</v>
       </c>
       <c r="V5" t="n">
-        <v>392.1601898825963</v>
+        <v>101.0141548210095</v>
       </c>
       <c r="W5" t="n">
-        <v>392.1601898825963</v>
+        <v>101.0141548210095</v>
       </c>
       <c r="X5" t="n">
-        <v>392.1601898825963</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.1601898825963</v>
+        <v>7.413195943128199</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205.9264879772098</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="C6" t="n">
-        <v>205.9264879772098</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="D6" t="n">
-        <v>205.9264879772098</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="E6" t="n">
-        <v>205.9264879772098</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="F6" t="n">
-        <v>205.9264879772098</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="G6" t="n">
-        <v>205.9264879772098</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="H6" t="n">
-        <v>106.8961369967562</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="I6" t="n">
-        <v>40.98143251587835</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="J6" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="K6" t="n">
-        <v>30.48662383378605</v>
+        <v>28.29609765201174</v>
       </c>
       <c r="L6" t="n">
-        <v>107.2560375991155</v>
+        <v>102.6982772648969</v>
       </c>
       <c r="M6" t="n">
-        <v>204.3156845950581</v>
+        <v>194.4365770611084</v>
       </c>
       <c r="N6" t="n">
-        <v>301.3753315910007</v>
+        <v>286.1748768573198</v>
       </c>
       <c r="O6" t="n">
-        <v>336.6432823208034</v>
+        <v>317.2247932514015</v>
       </c>
       <c r="P6" t="n">
-        <v>392.1601898825963</v>
+        <v>370.6597971564099</v>
       </c>
       <c r="Q6" t="n">
-        <v>389.6898976853363</v>
+        <v>370.6597971564099</v>
       </c>
       <c r="R6" t="n">
-        <v>304.9568389576634</v>
+        <v>285.2360815879456</v>
       </c>
       <c r="S6" t="n">
-        <v>304.9568389576634</v>
+        <v>191.6351227100643</v>
       </c>
       <c r="T6" t="n">
-        <v>304.9568389576634</v>
+        <v>98.03416383218301</v>
       </c>
       <c r="U6" t="n">
-        <v>304.9568389576634</v>
+        <v>98.03416383218301</v>
       </c>
       <c r="V6" t="n">
-        <v>205.9264879772098</v>
+        <v>98.03416383218301</v>
       </c>
       <c r="W6" t="n">
-        <v>205.9264879772098</v>
+        <v>98.03416383218301</v>
       </c>
       <c r="X6" t="n">
-        <v>205.9264879772098</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.9264879772098</v>
+        <v>7.413195943128199</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="C7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="D7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="E7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="F7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="G7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="H7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="I7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="J7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="K7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="L7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="M7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="N7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="O7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="P7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="R7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="S7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="T7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="U7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="V7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="W7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="X7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.843203797651927</v>
+        <v>7.413195943128199</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.6649153051423</v>
+        <v>301.6373196128135</v>
       </c>
       <c r="C8" t="n">
-        <v>156.6649153051423</v>
+        <v>160.9314931086097</v>
       </c>
       <c r="D8" t="n">
-        <v>21.83640931561542</v>
+        <v>20.22566660440597</v>
       </c>
       <c r="E8" t="n">
-        <v>21.83640931561542</v>
+        <v>20.22566660440597</v>
       </c>
       <c r="F8" t="n">
-        <v>21.83640931561542</v>
+        <v>20.22566660440597</v>
       </c>
       <c r="G8" t="n">
-        <v>21.83640931561542</v>
+        <v>20.22566660440597</v>
       </c>
       <c r="H8" t="n">
-        <v>21.83640931561542</v>
+        <v>20.22566660440597</v>
       </c>
       <c r="I8" t="n">
-        <v>21.83640931561542</v>
+        <v>20.22566660440597</v>
       </c>
       <c r="J8" t="n">
-        <v>10.67841767437053</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="K8" t="n">
-        <v>45.0267853085478</v>
+        <v>48.54207107088098</v>
       </c>
       <c r="L8" t="n">
-        <v>124.540734507115</v>
+        <v>131.8395693045634</v>
       </c>
       <c r="M8" t="n">
-        <v>244.684761132421</v>
+        <v>256.193523243287</v>
       </c>
       <c r="N8" t="n">
-        <v>371.3866520940703</v>
+        <v>387.1734625436283</v>
       </c>
       <c r="O8" t="n">
-        <v>477.6923936390745</v>
+        <v>497.5188438236909</v>
       </c>
       <c r="P8" t="n">
-        <v>533.9208837185264</v>
+        <v>557.1950729566469</v>
       </c>
       <c r="Q8" t="n">
-        <v>527.8526332951734</v>
+        <v>557.1950729566469</v>
       </c>
       <c r="R8" t="n">
-        <v>437.1793662089264</v>
+        <v>557.1950729566469</v>
       </c>
       <c r="S8" t="n">
-        <v>302.3508602193995</v>
+        <v>557.1950729566469</v>
       </c>
       <c r="T8" t="n">
-        <v>291.4934212946692</v>
+        <v>557.1950729566469</v>
       </c>
       <c r="U8" t="n">
-        <v>291.4934212946692</v>
+        <v>442.3431461170172</v>
       </c>
       <c r="V8" t="n">
-        <v>156.6649153051423</v>
+        <v>442.3431461170172</v>
       </c>
       <c r="W8" t="n">
-        <v>156.6649153051423</v>
+        <v>301.6373196128135</v>
       </c>
       <c r="X8" t="n">
-        <v>156.6649153051423</v>
+        <v>301.6373196128135</v>
       </c>
       <c r="Y8" t="n">
-        <v>156.6649153051423</v>
+        <v>301.6373196128135</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.67841767437053</v>
+        <v>113.9318804374139</v>
       </c>
       <c r="C9" t="n">
-        <v>10.67841767437053</v>
+        <v>113.9318804374139</v>
       </c>
       <c r="D9" t="n">
-        <v>10.67841767437053</v>
+        <v>113.9318804374139</v>
       </c>
       <c r="E9" t="n">
-        <v>10.67841767437053</v>
+        <v>113.9318804374139</v>
       </c>
       <c r="F9" t="n">
-        <v>10.67841767437053</v>
+        <v>113.9318804374139</v>
       </c>
       <c r="G9" t="n">
-        <v>10.67841767437053</v>
+        <v>113.9318804374139</v>
       </c>
       <c r="H9" t="n">
-        <v>10.67841767437053</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="I9" t="n">
-        <v>10.67841767437053</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="J9" t="n">
-        <v>10.67841767437053</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="K9" t="n">
-        <v>45.53814856298961</v>
+        <v>48.07509615055365</v>
       </c>
       <c r="L9" t="n">
-        <v>138.7338998558815</v>
+        <v>144.0561861608232</v>
       </c>
       <c r="M9" t="n">
-        <v>266.8458140273478</v>
+        <v>232.5636749047651</v>
       </c>
       <c r="N9" t="n">
-        <v>352.6970205205317</v>
+        <v>370.4694554615352</v>
       </c>
       <c r="O9" t="n">
-        <v>463.9575589609954</v>
+        <v>484.7821354917693</v>
       </c>
       <c r="P9" t="n">
-        <v>533.9208837185264</v>
+        <v>557.1950729566469</v>
       </c>
       <c r="Q9" t="n">
-        <v>533.9208837185264</v>
+        <v>557.1950729566469</v>
       </c>
       <c r="R9" t="n">
-        <v>533.9208837185264</v>
+        <v>557.1950729566469</v>
       </c>
       <c r="S9" t="n">
-        <v>399.0923777289995</v>
+        <v>557.1950729566469</v>
       </c>
       <c r="T9" t="n">
-        <v>264.2638717394726</v>
+        <v>536.0493599500252</v>
       </c>
       <c r="U9" t="n">
-        <v>129.4353657499457</v>
+        <v>395.3435334458214</v>
       </c>
       <c r="V9" t="n">
-        <v>10.67841767437053</v>
+        <v>254.6377069416177</v>
       </c>
       <c r="W9" t="n">
-        <v>10.67841767437053</v>
+        <v>113.9318804374139</v>
       </c>
       <c r="X9" t="n">
-        <v>10.67841767437053</v>
+        <v>113.9318804374139</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.67841767437053</v>
+        <v>113.9318804374139</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="C10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="D10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="E10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="F10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="G10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="H10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="I10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="J10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="K10" t="n">
-        <v>11.99936591069933</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="L10" t="n">
-        <v>10.67841767437053</v>
+        <v>11.44816833963145</v>
       </c>
       <c r="M10" t="n">
-        <v>12.57166180257124</v>
+        <v>15.02725811793101</v>
       </c>
       <c r="N10" t="n">
-        <v>22.27741472296006</v>
+        <v>26.37877104690965</v>
       </c>
       <c r="O10" t="n">
-        <v>22.27741472296006</v>
+        <v>26.37877104690965</v>
       </c>
       <c r="P10" t="n">
-        <v>22.27741472296006</v>
+        <v>26.37877104690965</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.27741472296006</v>
+        <v>26.37877104690965</v>
       </c>
       <c r="R10" t="n">
-        <v>22.27741472296006</v>
+        <v>26.37877104690965</v>
       </c>
       <c r="S10" t="n">
-        <v>22.27741472296006</v>
+        <v>26.37877104690965</v>
       </c>
       <c r="T10" t="n">
-        <v>22.27741472296006</v>
+        <v>26.37877104690965</v>
       </c>
       <c r="U10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="V10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="W10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="X10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.27741472296006</v>
+        <v>11.14390145913294</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>815.5113999780201</v>
+        <v>900.9885281818035</v>
       </c>
       <c r="C11" t="n">
-        <v>815.5113999780201</v>
+        <v>812.620799934451</v>
       </c>
       <c r="D11" t="n">
-        <v>815.5113999780201</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="E11" t="n">
-        <v>429.7231473797759</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="F11" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G11" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H11" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I11" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J11" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232725</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L11" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q11" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R11" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S11" t="n">
-        <v>2036.325171642787</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T11" t="n">
-        <v>1826.151173794703</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U11" t="n">
-        <v>1572.544009457212</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V11" t="n">
-        <v>1241.481122113641</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="W11" t="n">
-        <v>888.712466843527</v>
+        <v>1274.454286442883</v>
       </c>
       <c r="X11" t="n">
-        <v>815.5113999780201</v>
+        <v>900.9885281818035</v>
       </c>
       <c r="Y11" t="n">
-        <v>815.5113999780201</v>
+        <v>900.9885281818035</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.1625546147327</v>
+        <v>495.5620530179271</v>
       </c>
       <c r="C12" t="n">
-        <v>753.7095253336057</v>
+        <v>321.1090237368001</v>
       </c>
       <c r="D12" t="n">
-        <v>604.7751156723544</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E12" t="n">
-        <v>445.5376606668989</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F12" t="n">
-        <v>299.0031026937839</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G12" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H12" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I12" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J12" t="n">
-        <v>89.55356510562341</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K12" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L12" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M12" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N12" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O12" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P12" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q12" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R12" t="n">
-        <v>1766.227047333489</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S12" t="n">
-        <v>1766.227047333489</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T12" t="n">
-        <v>1766.227047333489</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U12" t="n">
-        <v>1766.227047333489</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="V12" t="n">
-        <v>1766.227047333489</v>
+        <v>1165.411208716615</v>
       </c>
       <c r="W12" t="n">
-        <v>1511.989690605287</v>
+        <v>911.1738519884138</v>
       </c>
       <c r="X12" t="n">
-        <v>1304.138190399755</v>
+        <v>703.322351782881</v>
       </c>
       <c r="Y12" t="n">
-        <v>1096.377891634801</v>
+        <v>495.5620530179271</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D13" t="n">
-        <v>497.4664265514534</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="E13" t="n">
-        <v>497.4664265514534</v>
+        <v>361.542239439282</v>
       </c>
       <c r="F13" t="n">
-        <v>490.1366584153656</v>
+        <v>361.542239439282</v>
       </c>
       <c r="G13" t="n">
-        <v>322.0038290103839</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H13" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I13" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J13" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K13" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L13" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M13" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N13" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O13" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P13" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y13" t="n">
-        <v>497.4664265514534</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2062.355752726349</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="C14" t="n">
-        <v>1693.393235785938</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="D14" t="n">
-        <v>1335.127537179187</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E14" t="n">
-        <v>949.3392845809428</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F14" t="n">
-        <v>538.3533797913353</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G14" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H14" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I14" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J14" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301899</v>
       </c>
       <c r="K14" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232715</v>
       </c>
       <c r="L14" t="n">
-        <v>669.5878927711877</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M14" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N14" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O14" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545597</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q14" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R14" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S14" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T14" t="n">
-        <v>2168.459826904657</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U14" t="n">
-        <v>2168.459826904657</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V14" t="n">
-        <v>2168.459826904657</v>
+        <v>1602.117603492124</v>
       </c>
       <c r="W14" t="n">
-        <v>2168.459826904657</v>
+        <v>1602.117603492124</v>
       </c>
       <c r="X14" t="n">
-        <v>2168.459826904657</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2168.459826904657</v>
+        <v>1228.651845231044</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.1625546147327</v>
+        <v>364.3567837923351</v>
       </c>
       <c r="C15" t="n">
-        <v>753.7095253336057</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="D15" t="n">
-        <v>604.7751156723544</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E15" t="n">
-        <v>445.5376606668989</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F15" t="n">
-        <v>299.0031026937839</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G15" t="n">
-        <v>162.1271089088999</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H15" t="n">
-        <v>80.03532540581921</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I15" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J15" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K15" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L15" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M15" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N15" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O15" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P15" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q15" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R15" t="n">
-        <v>1766.227047333489</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S15" t="n">
-        <v>1766.227047333489</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T15" t="n">
-        <v>1766.227047333489</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U15" t="n">
-        <v>1766.227047333489</v>
+        <v>1202.421276511091</v>
       </c>
       <c r="V15" t="n">
-        <v>1766.227047333489</v>
+        <v>1202.421276511091</v>
       </c>
       <c r="W15" t="n">
-        <v>1511.989690605287</v>
+        <v>948.1839197828899</v>
       </c>
       <c r="X15" t="n">
-        <v>1304.138190399755</v>
+        <v>740.3324195773571</v>
       </c>
       <c r="Y15" t="n">
-        <v>1096.377891634801</v>
+        <v>532.5721208124032</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K16" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L16" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M16" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N16" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O16" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P16" t="n">
-        <v>520.2893470406003</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q16" t="n">
-        <v>497.4664265514534</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R16" t="n">
-        <v>388.3019303235357</v>
+        <v>466.1525394612431</v>
       </c>
       <c r="S16" t="n">
-        <v>189.1224447077621</v>
+        <v>266.9730538454695</v>
       </c>
       <c r="T16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="U16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1335.127537179187</v>
+        <v>1572.416709980092</v>
       </c>
       <c r="C17" t="n">
-        <v>1335.127537179187</v>
+        <v>1203.454193039681</v>
       </c>
       <c r="D17" t="n">
-        <v>1335.127537179187</v>
+        <v>845.18849443293</v>
       </c>
       <c r="E17" t="n">
-        <v>949.3392845809428</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F17" t="n">
-        <v>538.3533797913353</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G17" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H17" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I17" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J17" t="n">
-        <v>152.5078184301905</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K17" t="n">
-        <v>366.8168396232726</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L17" t="n">
-        <v>669.587892771188</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M17" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N17" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O17" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P17" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q17" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R17" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S17" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T17" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U17" t="n">
-        <v>2018.959079792872</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V17" t="n">
-        <v>1687.896192449301</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W17" t="n">
-        <v>1335.127537179187</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X17" t="n">
-        <v>1335.127537179187</v>
+        <v>1794.994068643573</v>
       </c>
       <c r="Y17" t="n">
-        <v>1335.127537179187</v>
+        <v>1794.994068643573</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>809.4046422439259</v>
+        <v>477.9588337551816</v>
       </c>
       <c r="C18" t="n">
-        <v>634.9516129627989</v>
+        <v>303.5058044740546</v>
       </c>
       <c r="D18" t="n">
-        <v>486.0172033015477</v>
+        <v>154.5713948128033</v>
       </c>
       <c r="E18" t="n">
-        <v>326.7797482960922</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F18" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G18" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H18" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I18" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J18" t="n">
-        <v>89.55356510562341</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K18" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L18" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M18" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N18" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O18" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P18" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q18" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R18" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S18" t="n">
-        <v>1627.262386835207</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T18" t="n">
-        <v>1627.262386835207</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U18" t="n">
-        <v>1627.262386835207</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="V18" t="n">
-        <v>1627.262386835207</v>
+        <v>1108.263027708984</v>
       </c>
       <c r="W18" t="n">
-        <v>1393.231778234481</v>
+        <v>854.0256709807825</v>
       </c>
       <c r="X18" t="n">
-        <v>1185.380278028948</v>
+        <v>646.1741707752496</v>
       </c>
       <c r="Y18" t="n">
-        <v>977.6199792639939</v>
+        <v>646.1741707752496</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>411.1248508126826</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1248508126826</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D19" t="n">
-        <v>411.1248508126826</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E19" t="n">
-        <v>411.1248508126826</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F19" t="n">
-        <v>322.0038290103839</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G19" t="n">
-        <v>322.0038290103839</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H19" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I19" t="n">
-        <v>61.70688273934479</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J19" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K19" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L19" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M19" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N19" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O19" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P19" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q19" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R19" t="n">
-        <v>411.1248508126826</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S19" t="n">
-        <v>411.1248508126826</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T19" t="n">
-        <v>411.1248508126826</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U19" t="n">
-        <v>411.1248508126826</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V19" t="n">
-        <v>411.1248508126826</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W19" t="n">
-        <v>411.1248508126826</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X19" t="n">
-        <v>411.1248508126826</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y19" t="n">
-        <v>411.1248508126826</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.3390791561994</v>
+        <v>1296.956676308548</v>
       </c>
       <c r="C20" t="n">
-        <v>422.3390791561994</v>
+        <v>927.9941593681363</v>
       </c>
       <c r="D20" t="n">
-        <v>422.3390791561994</v>
+        <v>569.7284607613858</v>
       </c>
       <c r="E20" t="n">
-        <v>422.3390791561994</v>
+        <v>569.7284607613858</v>
       </c>
       <c r="F20" t="n">
-        <v>422.3390791561994</v>
+        <v>158.7425559717782</v>
       </c>
       <c r="G20" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H20" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I20" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J20" t="n">
-        <v>152.507818430191</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K20" t="n">
-        <v>366.8168396232736</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L20" t="n">
-        <v>669.5878927711888</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M20" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N20" t="n">
-        <v>1417.28654013517</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O20" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P20" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q20" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R20" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S20" t="n">
-        <v>2036.325171642788</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T20" t="n">
-        <v>1826.151173794703</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U20" t="n">
-        <v>1572.544009457213</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V20" t="n">
-        <v>1572.544009457213</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="W20" t="n">
-        <v>1572.544009457213</v>
+        <v>1683.55651637267</v>
       </c>
       <c r="X20" t="n">
-        <v>1199.078251196133</v>
+        <v>1683.55651637267</v>
       </c>
       <c r="Y20" t="n">
-        <v>808.9389192203212</v>
+        <v>1683.55651637267</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>475.2207619161477</v>
+        <v>270.1985349902277</v>
       </c>
       <c r="C21" t="n">
-        <v>475.2207619161477</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="D21" t="n">
-        <v>475.2207619161477</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9012440949851</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G21" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H21" t="n">
-        <v>80.03532540581921</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I21" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J21" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K21" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L21" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M21" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N21" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O21" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P21" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q21" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R21" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S21" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T21" t="n">
-        <v>1400.563316948361</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U21" t="n">
-        <v>1172.461727081625</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="V21" t="n">
-        <v>937.3096188498821</v>
+        <v>1108.263027708984</v>
       </c>
       <c r="W21" t="n">
-        <v>683.0722621216805</v>
+        <v>854.0256709807825</v>
       </c>
       <c r="X21" t="n">
-        <v>475.2207619161477</v>
+        <v>646.1741707752496</v>
       </c>
       <c r="Y21" t="n">
-        <v>475.2207619161477</v>
+        <v>438.4138720102957</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.8929105896938</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C22" t="n">
-        <v>75.8929105896938</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D22" t="n">
-        <v>75.8929105896938</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K22" t="n">
-        <v>92.71685897981548</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L22" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M22" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N22" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O22" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P22" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q22" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R22" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S22" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T22" t="n">
-        <v>296.6854897332239</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U22" t="n">
-        <v>296.6854897332239</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V22" t="n">
-        <v>296.6854897332239</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W22" t="n">
-        <v>296.6854897332239</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X22" t="n">
-        <v>296.6854897332239</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.8929105896938</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2158.017852261501</v>
+        <v>1236.335336125843</v>
       </c>
       <c r="C23" t="n">
-        <v>1934.208022973022</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5989,7 +5989,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -5998,7 +5998,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3323.902285766705</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>3070.371809040541</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792695</v>
+        <v>2739.308921696971</v>
       </c>
       <c r="W23" t="n">
-        <v>2531.483610522581</v>
+        <v>2386.540266426856</v>
       </c>
       <c r="X23" t="n">
-        <v>2158.017852261501</v>
+        <v>2013.074508165776</v>
       </c>
       <c r="Y23" t="n">
-        <v>2158.017852261501</v>
+        <v>1622.935176189965</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3177.279673892551</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>3177.279673892551</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>3177.279673892551</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>3029.366580310158</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>2882.476632812248</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>2714.773796186967</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3177.279673892551</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>3177.279673892551</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U25" t="n">
-        <v>3177.279673892551</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V25" t="n">
-        <v>3177.279673892551</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W25" t="n">
-        <v>3177.279673892551</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X25" t="n">
-        <v>3177.279673892551</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y25" t="n">
-        <v>3177.279673892551</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1208.812782134349</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>839.8502651939375</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>481.5845665871869</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
         <v>66.51211643218342</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.50962791956</v>
+        <v>1980.653821343009</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943748</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218342</v>
@@ -6408,28 +6408,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T28" t="n">
-        <v>699.1203903877109</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="U28" t="n">
-        <v>410.0175235133545</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="V28" t="n">
-        <v>155.3330353074676</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W28" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X28" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1285.591601078695</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1285.591601078695</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1285.591601078695</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>899.8033484804505</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>488.8174436908429</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G29" t="n">
-        <v>73.7449935358394</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H29" t="n">
-        <v>73.7449935358394</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001389</v>
@@ -6484,31 +6484,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V29" t="n">
-        <v>2788.565186649822</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W29" t="n">
-        <v>2435.796531379708</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="X29" t="n">
-        <v>2062.330773118628</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y29" t="n">
-        <v>1672.191441142817</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>417.6040489720652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>417.6040489720652</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>417.6040489720652</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>269.6909553896721</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K31" t="n">
         <v>176.6457242372933</v>
@@ -6630,43 +6630,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>417.6040489720652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U31" t="n">
-        <v>417.6040489720652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V31" t="n">
-        <v>417.6040489720652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W31" t="n">
-        <v>417.6040489720652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X31" t="n">
-        <v>417.6040489720652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y31" t="n">
-        <v>417.6040489720652</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1976.204921733553</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>184.2526492647279</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6721,7 +6721,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3126.409852034566</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3126.409852034566</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>3126.409852034566</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>3126.409852034566</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X32" t="n">
-        <v>2752.944093773487</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y32" t="n">
-        <v>2362.804761797675</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>541.9536817013565</v>
+        <v>155.0187321448635</v>
       </c>
       <c r="C34" t="n">
-        <v>541.9536817013565</v>
+        <v>155.0187321448635</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>155.0187321448635</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>155.0187321448635</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>155.0187321448635</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K34" t="n">
         <v>176.6457242372933</v>
@@ -6867,43 +6867,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U34" t="n">
-        <v>541.9536817013565</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V34" t="n">
-        <v>541.9536817013565</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W34" t="n">
-        <v>541.9536817013565</v>
+        <v>155.0187321448635</v>
       </c>
       <c r="X34" t="n">
-        <v>541.9536817013565</v>
+        <v>155.0187321448635</v>
       </c>
       <c r="Y34" t="n">
-        <v>541.9536817013565</v>
+        <v>155.0187321448635</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2047.583838282732</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.62132134232</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>599.3250994197319</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>188.3391946301244</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2434.183678346854</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W35" t="n">
-        <v>2434.183678346854</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X35" t="n">
-        <v>2434.183678346854</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y35" t="n">
-        <v>2434.183678346854</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080133</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2640.167115151076</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.605821609171</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V37" t="n">
-        <v>3325.605821609171</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W37" t="n">
-        <v>3036.18865157221</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X37" t="n">
-        <v>2808.199100674193</v>
+        <v>182.0279726153371</v>
       </c>
       <c r="Y37" t="n">
-        <v>2640.167115151076</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1232.248790760447</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2862738200351</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218343</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218343</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3319.815740401309</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>3066.285263675145</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>2735.222376331575</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2382.45372106146</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X38" t="n">
-        <v>2008.98796280038</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>1618.848630824569</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="G40" t="n">
         <v>66.51211643218343</v>
@@ -7359,25 +7359,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>832.0660869429007</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>610.2994715124267</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U40" t="n">
-        <v>321.1966046380703</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V40" t="n">
-        <v>66.51211643218343</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W40" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X40" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1091.323932370578</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C41" t="n">
-        <v>722.3614154301667</v>
+        <v>1053.23793938793</v>
       </c>
       <c r="D41" t="n">
-        <v>364.0957168234162</v>
+        <v>694.9722407811798</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>309.1839881829356</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>309.1839881829356</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
         <v>66.5121164321834</v>
@@ -7438,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>2925.360405285277</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>2594.297517941706</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W41" t="n">
-        <v>2241.528862671592</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X41" t="n">
-        <v>1868.063104410512</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y41" t="n">
-        <v>1477.9237724347</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>739.2385409879448</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C43" t="n">
-        <v>739.2385409879448</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>589.1219015756091</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E43" t="n">
-        <v>441.2088079932159</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>441.2088079932159</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>273.5059713679349</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
         <v>66.5121164321834</v>
@@ -7599,22 +7599,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181845</v>
+        <v>766.1162851307095</v>
       </c>
       <c r="U43" t="n">
-        <v>920.8870058181845</v>
+        <v>766.1162851307095</v>
       </c>
       <c r="V43" t="n">
-        <v>920.8870058181845</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="W43" t="n">
-        <v>920.8870058181845</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X43" t="n">
-        <v>920.8870058181845</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y43" t="n">
-        <v>920.8870058181845</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1278.358723975039</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
         <v>1278.358723975039</v>
@@ -7648,10 +7648,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7660,10 +7660,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>2781.332309546166</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W44" t="n">
-        <v>2428.563654276052</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X44" t="n">
-        <v>2055.097896014972</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.958564039161</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>382.3382468580007</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="C46" t="n">
-        <v>213.4020639300938</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4020639300938</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>262.104429930961</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>115.2144824330507</v>
       </c>
       <c r="G46" t="n">
         <v>66.5121164321834</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W46" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="X46" t="n">
-        <v>784.7792908317705</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.9867116882403</v>
+        <v>410.0175235133541</v>
       </c>
     </row>
   </sheetData>
@@ -22549,28 +22549,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819052</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>262.0180923315806</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>300.3110827384204</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>380.4127449485878</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H2" t="n">
-        <v>227.9704273259873</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I2" t="n">
-        <v>46.89118423444714</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24.91528667358028</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>23.65357118422315</v>
       </c>
       <c r="R2" t="n">
-        <v>7.366133540830546</v>
+        <v>100.031082829933</v>
       </c>
       <c r="S2" t="n">
         <v>167.1010256612667</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>277.0661513893667</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,10 +22628,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921337</v>
       </c>
       <c r="D3" t="n">
-        <v>65.82577823079737</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>43.69431484884186</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H3" t="n">
         <v>102.729632124056</v>
@@ -22649,7 +22649,7 @@
         <v>65.63472101604998</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516765</v>
+        <v>33.84730027516767</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,10 +22670,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.34273879062262</v>
+        <v>14.34273879062263</v>
       </c>
       <c r="R3" t="n">
-        <v>84.56947841277967</v>
+        <v>84.56947841277969</v>
       </c>
       <c r="S3" t="n">
         <v>153.4011028494393</v>
@@ -22682,19 +22682,19 @@
         <v>196.197498299121</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8766285924705</v>
+        <v>144.2573412586291</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603229</v>
       </c>
       <c r="W3" t="n">
-        <v>159.0300338718172</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>113.108035914375</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>113.017746488202</v>
       </c>
     </row>
     <row r="4">
@@ -22725,31 +22725,31 @@
         <v>154.8907084131551</v>
       </c>
       <c r="I4" t="n">
-        <v>130.6355227555884</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547944</v>
+        <v>68.65627904547945</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092821</v>
+        <v>33.14412614092822</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026832</v>
+        <v>12.20519387026833</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924566</v>
+        <v>9.577470677924595</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410117</v>
+        <v>1.412844977410131</v>
       </c>
       <c r="O4" t="n">
-        <v>21.82326264618293</v>
+        <v>21.82326264618294</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638599</v>
+        <v>37.92808757638601</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605681</v>
+        <v>82.40871249605682</v>
       </c>
       <c r="R4" t="n">
         <v>140.1909870721275</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>284.6937941928315</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>350.2572842736731</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H5" t="n">
-        <v>222.3845378348077</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I5" t="n">
-        <v>40.72257627971624</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>24.91528667358028</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>21.43088449674616</v>
+        <v>23.65357118422315</v>
       </c>
       <c r="R5" t="n">
-        <v>98.73816257081133</v>
+        <v>100.031082829933</v>
       </c>
       <c r="S5" t="n">
-        <v>166.6320002036067</v>
+        <v>167.1010256612667</v>
       </c>
       <c r="T5" t="n">
-        <v>214.9530619076311</v>
+        <v>122.3782128463248</v>
       </c>
       <c r="U5" t="n">
-        <v>251.196841254491</v>
+        <v>158.5335385714933</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>246.1329711362934</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>277.0661513893666</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3482514887423</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H6" t="n">
-        <v>4.583225646640244</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>65.63472101604998</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>33.84730027516767</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,28 +22907,28 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.49139450491925</v>
+        <v>14.34273879062263</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>153.1965477206216</v>
+        <v>60.73615356033685</v>
       </c>
       <c r="T6" t="n">
-        <v>196.1531095946621</v>
+        <v>103.5325490100185</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8759040760756</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V6" t="n">
-        <v>134.7605396787762</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>116.0582269933132</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1565820501254</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H7" t="n">
-        <v>154.8086218933483</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I7" t="n">
-        <v>130.3578722366511</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J7" t="n">
-        <v>68.00353174022675</v>
+        <v>68.65627904547945</v>
       </c>
       <c r="K7" t="n">
-        <v>32.07146180234916</v>
+        <v>33.14412614092822</v>
       </c>
       <c r="L7" t="n">
-        <v>10.83255282229321</v>
+        <v>12.20519387026833</v>
       </c>
       <c r="M7" t="n">
-        <v>8.13021315131121</v>
+        <v>9.577470677924595</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.412844977410131</v>
       </c>
       <c r="O7" t="n">
-        <v>20.51827163395858</v>
+        <v>21.82326264618294</v>
       </c>
       <c r="P7" t="n">
-        <v>36.81144232126425</v>
+        <v>37.92808757638601</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.63560520163962</v>
+        <v>82.40871249605682</v>
       </c>
       <c r="R7" t="n">
-        <v>139.7758542224708</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S7" t="n">
-        <v>209.4753285817443</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T7" t="n">
-        <v>224.3804372926753</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2735167760363</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23023,10 +23023,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>225.9741235318458</v>
       </c>
       <c r="D8" t="n">
-        <v>221.2028206910514</v>
+        <v>215.3842733815212</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.2997684840524</v>
+        <v>413.2755505812142</v>
       </c>
       <c r="H8" t="n">
-        <v>318.9618955261917</v>
+        <v>318.7138739287501</v>
       </c>
       <c r="I8" t="n">
-        <v>133.2564259995908</v>
+        <v>132.3227653004218</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23065,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>3.392306864002762</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>88.24525657622561</v>
       </c>
       <c r="S8" t="n">
-        <v>29.89719186081712</v>
+        <v>162.8255473295236</v>
       </c>
       <c r="T8" t="n">
-        <v>203.578988095084</v>
+        <v>214.2218387608928</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1854153853499</v>
+        <v>137.4800703818895</v>
       </c>
       <c r="V8" t="n">
-        <v>194.2720375405033</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>209.9422004782513</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2718342519101</v>
+        <v>136.2588765315378</v>
       </c>
       <c r="H9" t="n">
-        <v>101.8852434878836</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>62.62452537846919</v>
+        <v>62.17839333933398</v>
       </c>
       <c r="J9" t="n">
-        <v>25.58709336699852</v>
+        <v>24.36287295234736</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,25 +23144,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.182390531240287</v>
+        <v>1.528348892133124</v>
       </c>
       <c r="R9" t="n">
-        <v>79.14115619041105</v>
+        <v>78.33664088518837</v>
       </c>
       <c r="S9" t="n">
-        <v>18.29691013316383</v>
+        <v>151.53644709009</v>
       </c>
       <c r="T9" t="n">
-        <v>62.36487357446558</v>
+        <v>174.8586099213041</v>
       </c>
       <c r="U9" t="n">
-        <v>92.3906556966524</v>
+        <v>86.57125590551883</v>
       </c>
       <c r="V9" t="n">
-        <v>115.2312085546058</v>
+        <v>93.50181891026355</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>112.3962149217579</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0925164057866</v>
+        <v>167.0816530883045</v>
       </c>
       <c r="H10" t="n">
-        <v>154.2390200736819</v>
+        <v>154.1424353055226</v>
       </c>
       <c r="I10" t="n">
-        <v>128.4312435869001</v>
+        <v>128.104554002983</v>
       </c>
       <c r="J10" t="n">
-        <v>63.47409068547657</v>
+        <v>62.70605413949018</v>
       </c>
       <c r="K10" t="n">
-        <v>14.45293043594443</v>
+        <v>23.3660787835227</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,25 +23217,25 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>11.4628840141494</v>
+        <v>9.927403466766577</v>
       </c>
       <c r="P10" t="n">
-        <v>29.06299384596575</v>
+        <v>27.74912497521831</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.27098111069144</v>
+        <v>75.36132640771078</v>
       </c>
       <c r="R10" t="n">
-        <v>136.8952298870208</v>
+        <v>136.4067756300518</v>
       </c>
       <c r="S10" t="n">
-        <v>208.3588391254043</v>
+        <v>208.1695211289204</v>
       </c>
       <c r="T10" t="n">
-        <v>224.1067022668642</v>
+        <v>224.060286273986</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2700222863451</v>
+        <v>271.1869088498563</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>277.7888408061286</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>297.2620444816173</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>30.12771709331979</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>13.22994759380524</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>137.8897991394776</v>
       </c>
       <c r="F13" t="n">
-        <v>138.1645775682043</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,10 +23436,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R13" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S13" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T13" t="n">
         <v>221.3678187343026</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>277.690808226956</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>105.9590238705856</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H15" t="n">
-        <v>13.22994759380525</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8205739680685</v>
+        <v>29.65995393517508</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23676,7 +23676,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.47741176207628</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>77.07210304633031</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2350578157167</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>162.3822565866347</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T17" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U17" t="n">
-        <v>103.065353053449</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>47.55490416343781</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H18" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I18" t="n">
-        <v>36.29946757904879</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>31.66886087721421</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T18" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>20.00468064620037</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>57.19123643865555</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.59469128425542</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S19" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T19" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>36.69055105170168</v>
+        <v>297.6511090042785</v>
       </c>
       <c r="H20" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I20" t="n">
-        <v>78.16360657708287</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>105.7925343761034</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>141.48875781245</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>114.2354857354845</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24150,7 +24150,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J22" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.59469128425542</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R22" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S22" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>32.66876217033058</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>143.7011607754133</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>202.2314696555793</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>131.8582917620359</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>147.4609218293966</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.1719029921759</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>170.134989701039</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>69.14625340081608</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>198.5902886500597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>34.41638144030653</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>13.25124995511885</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>110.2998057140457</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>147.4609218293965</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>219.6215666560273</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>115.9017220489372</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>135.8091423302597</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>78.40425870347498</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>290.3129182374919</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>9.345240527139481</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,22 +25365,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.23298768420955</v>
+        <v>104.2239557307726</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>258.2608625745989</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>198.1857897438364</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>145.0671476329185</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>101.8363156449105</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>170.6765726202088</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>167.8579417260439</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>36.18351893776496</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>66.32593579556885</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>102.0272134555574</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>235.3313350441474</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>117.8104659181696</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>90.96301755248723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>346463.2215937443</v>
+        <v>342091.1537804439</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>375694.6678126377</v>
+        <v>380537.3363759842</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>645633.2065222079</v>
+        <v>645633.2065222075</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645633.2065222079</v>
+        <v>645633.2065222072</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645633.2065222076</v>
+        <v>645633.2065222074</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645633.2065222078</v>
+        <v>645633.2065222075</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822602.4434218742</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136836.4615121775</v>
+        <v>136836.4615121774</v>
       </c>
       <c r="C2" t="n">
-        <v>138585.2886374976</v>
+        <v>136836.4615121774</v>
       </c>
       <c r="D2" t="n">
-        <v>150277.867125055</v>
+        <v>152214.9345503935</v>
       </c>
       <c r="E2" t="n">
-        <v>258253.282608883</v>
+        <v>258253.2826088827</v>
       </c>
       <c r="F2" t="n">
-        <v>258253.2826088829</v>
+        <v>258253.2826088826</v>
       </c>
       <c r="G2" t="n">
-        <v>258253.2826088829</v>
+        <v>258253.2826088827</v>
       </c>
       <c r="H2" t="n">
-        <v>258253.282608883</v>
+        <v>258253.2826088827</v>
       </c>
       <c r="I2" t="n">
         <v>329040.9773687492</v>
       </c>
       <c r="J2" t="n">
+        <v>329040.9773687492</v>
+      </c>
+      <c r="K2" t="n">
+        <v>329040.9773687494</v>
+      </c>
+      <c r="L2" t="n">
         <v>329040.9773687491</v>
-      </c>
-      <c r="K2" t="n">
-        <v>329040.9773687492</v>
-      </c>
-      <c r="L2" t="n">
-        <v>329040.9773687493</v>
       </c>
       <c r="M2" t="n">
         <v>329040.9773687492</v>
@@ -26352,7 +26352,7 @@
         <v>329040.9773687491</v>
       </c>
       <c r="O2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687491</v>
       </c>
       <c r="P2" t="n">
         <v>329040.9773687492</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.099248906</v>
+        <v>471995.0992489059</v>
       </c>
       <c r="C3" t="n">
-        <v>6398.742276106999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>41434.86834133388</v>
+        <v>54455.93013055481</v>
       </c>
       <c r="E3" t="n">
-        <v>407596.7082070953</v>
+        <v>401019.5549597759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>254625.8275892817</v>
+        <v>254625.8275892825</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.22799179792</v>
+        <v>24245.22799179793</v>
       </c>
       <c r="K3" t="n">
-        <v>1383.378268788294</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8969.588940907373</v>
+        <v>11802.59987188934</v>
       </c>
       <c r="M3" t="n">
-        <v>101833.4106994391</v>
+        <v>100383.4054357147</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063692</v>
+        <v>67.14558386063686</v>
       </c>
       <c r="C4" t="n">
-        <v>71.04041257933821</v>
+        <v>67.1455838606369</v>
       </c>
       <c r="D4" t="n">
-        <v>97.14235876750479</v>
+        <v>101.4907269587929</v>
       </c>
       <c r="E4" t="n">
-        <v>384.3219252469142</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="F4" t="n">
-        <v>384.3219252469142</v>
+        <v>384.3219252469135</v>
       </c>
       <c r="G4" t="n">
-        <v>384.3219252469142</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="H4" t="n">
-        <v>384.3219252469142</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>49237.11966583624</v>
+      </c>
+      <c r="C5" t="n">
         <v>49237.11966583625</v>
       </c>
-      <c r="C5" t="n">
-        <v>49675.53980095835</v>
-      </c>
       <c r="D5" t="n">
-        <v>52604.79774582521</v>
+        <v>53089.8930548604</v>
       </c>
       <c r="E5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="F5" t="n">
-        <v>51571.48185587232</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="G5" t="n">
-        <v>51571.48185587231</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="H5" t="n">
-        <v>51571.48185587232</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26496,7 +26496,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384462.9029864254</v>
+        <v>-398147.1241574236</v>
       </c>
       <c r="C6" t="n">
-        <v>82439.96614785295</v>
+        <v>73847.97509148231</v>
       </c>
       <c r="D6" t="n">
-        <v>56141.05867912837</v>
+        <v>31652.32311893215</v>
       </c>
       <c r="E6" t="n">
-        <v>-201299.2293793316</v>
+        <v>-202335.4562481754</v>
       </c>
       <c r="F6" t="n">
-        <v>206297.4788277636</v>
+        <v>198684.0987116006</v>
       </c>
       <c r="G6" t="n">
-        <v>206297.4788277636</v>
+        <v>198684.0987116006</v>
       </c>
       <c r="H6" t="n">
-        <v>206297.4788277637</v>
+        <v>198684.0987116006</v>
       </c>
       <c r="I6" t="n">
-        <v>-475.837770931932</v>
+        <v>-4549.833149102421</v>
       </c>
       <c r="J6" t="n">
-        <v>229904.7618265518</v>
+        <v>225830.7664483823</v>
       </c>
       <c r="K6" t="n">
-        <v>252766.6115495615</v>
+        <v>250075.9944401803</v>
       </c>
       <c r="L6" t="n">
-        <v>245180.4008774424</v>
+        <v>238273.3945682907</v>
       </c>
       <c r="M6" t="n">
-        <v>152316.5791189107</v>
+        <v>149692.5890044654</v>
       </c>
       <c r="N6" t="n">
-        <v>254149.9898183497</v>
+        <v>250075.99444018</v>
       </c>
       <c r="O6" t="n">
-        <v>254149.9898183497</v>
+        <v>250075.99444018</v>
       </c>
       <c r="P6" t="n">
-        <v>254149.9898183497</v>
+        <v>250075.9944401801</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641658</v>
+        <v>457.5913187641657</v>
       </c>
       <c r="C3" t="n">
-        <v>462.7112346212333</v>
+        <v>457.5913187641657</v>
       </c>
       <c r="D3" t="n">
-        <v>498.2385464818173</v>
+        <v>504.262749812815</v>
       </c>
       <c r="E3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="F3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.710664537684</v>
       </c>
       <c r="G3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="H3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.66494928910245</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="C4" t="n">
-        <v>98.04004747064909</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="D4" t="n">
-        <v>133.4802209296316</v>
+        <v>139.2987682391617</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="F4" t="n">
-        <v>542.1149567261642</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="G4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="H4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641658</v>
+        <v>457.5913187641657</v>
       </c>
       <c r="C3" t="n">
-        <v>5.119915857067497</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.52731186058395</v>
+        <v>46.67143104864925</v>
       </c>
       <c r="E3" t="n">
-        <v>355.4721180558676</v>
+        <v>349.4479147248691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.0660360556134</v>
+        <v>236.0660360556142</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.66494928910245</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="C4" t="n">
-        <v>5.375098181546633</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>35.44017345898251</v>
+        <v>46.63381895005926</v>
       </c>
       <c r="E4" t="n">
-        <v>408.6347357965326</v>
+        <v>402.8161884870015</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>289.2864986761284</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910245</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="K4" t="n">
-        <v>5.375098181546633</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>35.44017345898263</v>
+        <v>46.63381895005881</v>
       </c>
       <c r="M4" t="n">
-        <v>408.6347357965324</v>
+        <v>402.8161884870016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910245</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="K4" t="n">
-        <v>5.375098181546633</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>35.44017345898251</v>
+        <v>46.63381895005926</v>
       </c>
       <c r="M4" t="n">
-        <v>408.6347357965326</v>
+        <v>402.8161884870015</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>18.83942550067743</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685631</v>
+        <v>70.91975604685629</v>
       </c>
       <c r="J2" t="n">
         <v>156.130617853106</v>
@@ -31056,28 +31056,28 @@
         <v>233.9993234743608</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055321</v>
+        <v>290.296852405532</v>
       </c>
       <c r="M2" t="n">
-        <v>323.0111825163752</v>
+        <v>323.0111825163751</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856934</v>
+        <v>322.0780128856933</v>
       </c>
       <c r="O2" t="n">
         <v>309.9456856660335</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690875</v>
+        <v>264.5314718690874</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6521186902264</v>
+        <v>198.6521186902263</v>
       </c>
       <c r="R2" t="n">
         <v>115.5544549841991</v>
       </c>
       <c r="S2" t="n">
-        <v>41.91904392497862</v>
+        <v>41.91904392497861</v>
       </c>
       <c r="T2" t="n">
         <v>8.052687428704061</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.984253025266319</v>
+        <v>0.9842530252663189</v>
       </c>
       <c r="H3" t="n">
         <v>9.505812112440502</v>
@@ -31129,40 +31129,40 @@
         <v>33.88765898395002</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149904</v>
+        <v>92.99032639149902</v>
       </c>
       <c r="K3" t="n">
-        <v>158.9352790843424</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>213.7080965605663</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7989832111208</v>
+        <v>234.7989832111207</v>
       </c>
       <c r="N3" t="n">
-        <v>217.762376422882</v>
+        <v>224.0066613724357</v>
       </c>
       <c r="O3" t="n">
-        <v>234.1788327264123</v>
+        <v>195.0536364676414</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.9491588335307</v>
       </c>
       <c r="Q3" t="n">
         <v>125.6390352953989</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118428</v>
+        <v>61.11002555118427</v>
       </c>
       <c r="S3" t="n">
         <v>18.2820682543985</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700644</v>
+        <v>3.967230395700643</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436312</v>
+        <v>0.0647534885043631</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812825</v>
+        <v>0.8251646731812824</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284499</v>
+        <v>7.336464094284498</v>
       </c>
       <c r="I4" t="n">
-        <v>24.81495217166985</v>
+        <v>24.81495217166984</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391667</v>
+        <v>58.33914239391666</v>
       </c>
       <c r="K4" t="n">
-        <v>95.86913202960717</v>
+        <v>95.86913202960716</v>
       </c>
       <c r="L4" t="n">
         <v>122.67948241097</v>
@@ -31223,25 +31223,25 @@
         <v>126.2726994878231</v>
       </c>
       <c r="O4" t="n">
-        <v>116.6332758056599</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276162</v>
+        <v>99.79991647276161</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338904</v>
+        <v>69.09628913338902</v>
       </c>
       <c r="R4" t="n">
-        <v>37.10240430504202</v>
+        <v>37.10240430504201</v>
       </c>
       <c r="S4" t="n">
         <v>14.38036980444107</v>
       </c>
       <c r="T4" t="n">
-        <v>3.525703603592752</v>
+        <v>3.525703603592751</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352455</v>
+        <v>0.04500898217352454</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.860145666819027</v>
+        <v>1.839563090509208</v>
       </c>
       <c r="H5" t="n">
-        <v>19.05021681031036</v>
+        <v>18.83942550067743</v>
       </c>
       <c r="I5" t="n">
-        <v>71.7132658200406</v>
+        <v>70.91975604685629</v>
       </c>
       <c r="J5" t="n">
-        <v>157.8775382891815</v>
+        <v>156.130617853106</v>
       </c>
       <c r="K5" t="n">
-        <v>236.617504365631</v>
+        <v>233.9993234743608</v>
       </c>
       <c r="L5" t="n">
-        <v>293.5449373165439</v>
+        <v>290.296852405532</v>
       </c>
       <c r="M5" t="n">
-        <v>326.6253028188367</v>
+        <v>323.0111825163751</v>
       </c>
       <c r="N5" t="n">
-        <v>327.45311106724</v>
+        <v>322.0780128856934</v>
       </c>
       <c r="O5" t="n">
-        <v>313.4136182202545</v>
+        <v>309.9456856660335</v>
       </c>
       <c r="P5" t="n">
-        <v>267.4912720706598</v>
+        <v>264.5314718690874</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.8748053777033</v>
+        <v>198.6521186902263</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8473752433208</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S5" t="n">
-        <v>42.38806938263862</v>
+        <v>41.91904392497861</v>
       </c>
       <c r="T5" t="n">
-        <v>8.142787656500294</v>
+        <v>8.052687428704061</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1488116533455221</v>
+        <v>0.1471650472407366</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9952656744683132</v>
+        <v>0.9842530252663189</v>
       </c>
       <c r="H6" t="n">
-        <v>9.612171119207131</v>
+        <v>9.505812112440502</v>
       </c>
       <c r="I6" t="n">
-        <v>34.26682256393097</v>
+        <v>33.88765898395002</v>
       </c>
       <c r="J6" t="n">
-        <v>94.03078023562253</v>
+        <v>92.99032639149902</v>
       </c>
       <c r="K6" t="n">
-        <v>160.7135804249995</v>
+        <v>158.9352790843424</v>
       </c>
       <c r="L6" t="n">
-        <v>216.0992421690958</v>
+        <v>213.7080965605663</v>
       </c>
       <c r="M6" t="n">
-        <v>240.1740813926674</v>
+        <v>234.7989832111208</v>
       </c>
       <c r="N6" t="n">
-        <v>229.3817595539824</v>
+        <v>224.0066613724358</v>
       </c>
       <c r="O6" t="n">
-        <v>178.2204371008108</v>
+        <v>173.9597963576582</v>
       </c>
       <c r="P6" t="n">
-        <v>190.0520918201817</v>
+        <v>187.9491588335307</v>
       </c>
       <c r="Q6" t="n">
-        <v>127.0447903058149</v>
+        <v>125.6390352953989</v>
       </c>
       <c r="R6" t="n">
-        <v>61.79377582356775</v>
+        <v>61.11002555118427</v>
       </c>
       <c r="S6" t="n">
-        <v>18.48662338321624</v>
+        <v>18.2820682543985</v>
       </c>
       <c r="T6" t="n">
-        <v>4.011619100159559</v>
+        <v>3.967230395700643</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06547800489923115</v>
+        <v>0.0647534885043631</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8343973083333714</v>
+        <v>0.8251646731812824</v>
       </c>
       <c r="H7" t="n">
-        <v>7.418550614091253</v>
+        <v>7.336464094284498</v>
       </c>
       <c r="I7" t="n">
-        <v>25.09260269060722</v>
+        <v>24.81495217166984</v>
       </c>
       <c r="J7" t="n">
-        <v>58.99188969916936</v>
+        <v>58.33914239391666</v>
       </c>
       <c r="K7" t="n">
-        <v>96.94179636818622</v>
+        <v>95.86913202960716</v>
       </c>
       <c r="L7" t="n">
-        <v>124.0521234589451</v>
+        <v>122.67948241097</v>
       </c>
       <c r="M7" t="n">
-        <v>130.7955707962938</v>
+        <v>129.3483132696805</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>126.2726994878231</v>
       </c>
       <c r="O7" t="n">
-        <v>117.9382668178842</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P7" t="n">
-        <v>100.9165617278834</v>
+        <v>99.79991647276161</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.86939642780622</v>
+        <v>69.09628913338902</v>
       </c>
       <c r="R7" t="n">
-        <v>37.51753715469867</v>
+        <v>37.10240430504201</v>
       </c>
       <c r="S7" t="n">
-        <v>14.54126945522793</v>
+        <v>14.38036980444107</v>
       </c>
       <c r="T7" t="n">
-        <v>3.565152135606223</v>
+        <v>3.525703603592751</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04551258045454758</v>
+        <v>0.04500898217352454</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.002969031082681</v>
+        <v>2.027186933920863</v>
       </c>
       <c r="H8" t="n">
-        <v>20.51290658957551</v>
+        <v>20.76092818701704</v>
       </c>
       <c r="I8" t="n">
-        <v>77.21946357081514</v>
+        <v>78.15312426998413</v>
       </c>
       <c r="J8" t="n">
-        <v>169.9994928018538</v>
+        <v>172.054957032866</v>
       </c>
       <c r="K8" t="n">
-        <v>254.7851718875838</v>
+        <v>257.8657799457362</v>
       </c>
       <c r="L8" t="n">
-        <v>316.0835353725805</v>
+        <v>319.9053020747168</v>
       </c>
       <c r="M8" t="n">
-        <v>351.703835879097</v>
+        <v>355.9562877108319</v>
       </c>
       <c r="N8" t="n">
-        <v>357.3947716386608</v>
+        <v>361.7160325868346</v>
       </c>
       <c r="O8" t="n">
-        <v>337.4777483358323</v>
+        <v>341.558192512659</v>
       </c>
       <c r="P8" t="n">
-        <v>288.0294503809786</v>
+        <v>291.5120150814877</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.29812195533</v>
+        <v>218.9133830104467</v>
       </c>
       <c r="R8" t="n">
-        <v>125.8190033987476</v>
+        <v>127.3402812379065</v>
       </c>
       <c r="S8" t="n">
-        <v>45.64265679579664</v>
+        <v>46.1945222567217</v>
       </c>
       <c r="T8" t="n">
-        <v>8.76799693356444</v>
+        <v>8.874010803238582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1602375224866144</v>
+        <v>0.162174954713669</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.071682911300513</v>
+        <v>1.084640631672847</v>
       </c>
       <c r="H9" t="n">
-        <v>10.35020074861285</v>
+        <v>10.47534504799829</v>
       </c>
       <c r="I9" t="n">
-        <v>36.89785462153081</v>
+        <v>37.34398666066602</v>
       </c>
       <c r="J9" t="n">
-        <v>101.2505332996682</v>
+        <v>102.4747537143193</v>
       </c>
       <c r="K9" t="n">
-        <v>173.0532883568025</v>
+        <v>175.1456760364001</v>
       </c>
       <c r="L9" t="n">
-        <v>232.6915022979468</v>
+        <v>235.5049757498435</v>
       </c>
       <c r="M9" t="n">
-        <v>271.5400078325904</v>
+        <v>231.5355377037777</v>
       </c>
       <c r="N9" t="n">
-        <v>218.0601024804887</v>
+        <v>270.640480322495</v>
       </c>
       <c r="O9" t="n">
-        <v>254.9806267075391</v>
+        <v>258.0635980103375</v>
       </c>
       <c r="P9" t="n">
-        <v>204.6444324219374</v>
+        <v>207.1187886919843</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.7993835547812</v>
+        <v>138.4534251938884</v>
       </c>
       <c r="R9" t="n">
-        <v>66.5383477735529</v>
+        <v>67.34286307877558</v>
       </c>
       <c r="S9" t="n">
-        <v>19.9060400410424</v>
+        <v>20.14672401374783</v>
       </c>
       <c r="T9" t="n">
-        <v>4.319634190724433</v>
+        <v>4.371862896962045</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07050545469082323</v>
+        <v>0.0713579362942663</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8984629526721294</v>
+        <v>0.9093262701542565</v>
       </c>
       <c r="H10" t="n">
-        <v>7.988152433757665</v>
+        <v>8.084737201916941</v>
       </c>
       <c r="I10" t="n">
-        <v>27.01923134035822</v>
+        <v>27.34592092427528</v>
       </c>
       <c r="J10" t="n">
-        <v>63.52133075391954</v>
+        <v>64.28936729990593</v>
       </c>
       <c r="K10" t="n">
-        <v>104.3850594104528</v>
+        <v>105.6471793870127</v>
       </c>
       <c r="L10" t="n">
-        <v>133.5769375272728</v>
+        <v>135.1920165645701</v>
       </c>
       <c r="M10" t="n">
-        <v>140.8381517538684</v>
+        <v>142.5410261479076</v>
       </c>
       <c r="N10" t="n">
-        <v>137.4893352939088</v>
+        <v>139.1517191409692</v>
       </c>
       <c r="O10" t="n">
-        <v>126.9936544376934</v>
+        <v>128.5291349850762</v>
       </c>
       <c r="P10" t="n">
-        <v>108.6650102031819</v>
+        <v>109.9788790739293</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.23402051875441</v>
+        <v>76.14367522173507</v>
       </c>
       <c r="R10" t="n">
-        <v>40.39816149014865</v>
+        <v>40.88661574711774</v>
       </c>
       <c r="S10" t="n">
-        <v>15.65775891156792</v>
+        <v>15.8470769080519</v>
       </c>
       <c r="T10" t="n">
-        <v>3.838887161417279</v>
+        <v>3.885303154295459</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04900707014575257</v>
+        <v>0.04959961473568678</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H11" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I11" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J11" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K11" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L11" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M11" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N11" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O11" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P11" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q11" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S11" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T11" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H12" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I12" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J12" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K12" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L12" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M12" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N12" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O12" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q12" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R12" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S12" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T12" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H13" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I13" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J13" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K13" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L13" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M13" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N13" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O13" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P13" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R13" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S13" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T13" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H14" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I14" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J14" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K14" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L14" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M14" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N14" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O14" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P14" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S14" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T14" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H15" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I15" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J15" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K15" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L15" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M15" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N15" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O15" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P15" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q15" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R15" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S15" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T15" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H16" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I16" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J16" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K16" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L16" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M16" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N16" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O16" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P16" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R16" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S16" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T16" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H17" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I17" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J17" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K17" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L17" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M17" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N17" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O17" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P17" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q17" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S17" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T17" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H18" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I18" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J18" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K18" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L18" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M18" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N18" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O18" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P18" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q18" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R18" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S18" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T18" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H19" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I19" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J19" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K19" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L19" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M19" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N19" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O19" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P19" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R19" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S19" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T19" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H20" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I20" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J20" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K20" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L20" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M20" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N20" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O20" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P20" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q20" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R20" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S20" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T20" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H21" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I21" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J21" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K21" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L21" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M21" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N21" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O21" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P21" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q21" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R21" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S21" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T21" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H22" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I22" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J22" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K22" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L22" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M22" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N22" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O22" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P22" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R22" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S22" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T22" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K44" t="n">
         <v>557.2811376003809</v>
@@ -34386,7 +34386,7 @@
         <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.994981974642</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
         <v>473.0999946781689</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938029</v>
+        <v>13.90947242938026</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554485</v>
+        <v>54.5304374355448</v>
       </c>
       <c r="M2" t="n">
-        <v>92.66494928910245</v>
+        <v>92.6649492891024</v>
       </c>
       <c r="N2" t="n">
-        <v>92.66494928910245</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="O2" t="n">
         <v>79.84747424434678</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381791</v>
+        <v>33.29847611381786</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>21.0938401099834</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>75.15371678069215</v>
+        <v>75.15371678069212</v>
       </c>
       <c r="M3" t="n">
-        <v>92.66494928910245</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="N3" t="n">
-        <v>86.42066433954868</v>
+        <v>92.66494928910237</v>
       </c>
       <c r="O3" t="n">
-        <v>91.58258828196784</v>
+        <v>52.45739202319695</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.97475141920043</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>16.52765332065042</v>
+        <v>13.90947242938026</v>
       </c>
       <c r="L5" t="n">
-        <v>57.77852234655666</v>
+        <v>54.5304374355448</v>
       </c>
       <c r="M5" t="n">
-        <v>96.27906959156397</v>
+        <v>92.6649492891024</v>
       </c>
       <c r="N5" t="n">
-        <v>98.04004747064909</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="O5" t="n">
-        <v>83.31540679856781</v>
+        <v>79.84747424434678</v>
       </c>
       <c r="P5" t="n">
-        <v>36.25827631539028</v>
+        <v>33.29847611381786</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>22.87214145064053</v>
+        <v>21.09384010998338</v>
       </c>
       <c r="L6" t="n">
-        <v>77.54486238922163</v>
+        <v>75.15371678069212</v>
       </c>
       <c r="M6" t="n">
-        <v>98.04004747064909</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="N6" t="n">
-        <v>98.04004747064909</v>
+        <v>92.66494928910248</v>
       </c>
       <c r="O6" t="n">
-        <v>35.62419265636635</v>
+        <v>31.3635519132138</v>
       </c>
       <c r="P6" t="n">
-        <v>56.07768440585144</v>
+        <v>53.97475141920043</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>34.69532084260322</v>
+        <v>37.77592890075562</v>
       </c>
       <c r="L8" t="n">
-        <v>80.31712040259322</v>
+        <v>84.13888710472958</v>
       </c>
       <c r="M8" t="n">
-        <v>121.3576026518243</v>
+        <v>125.6100544835592</v>
       </c>
       <c r="N8" t="n">
-        <v>127.9817080420698</v>
+        <v>132.3029689902437</v>
       </c>
       <c r="O8" t="n">
-        <v>107.3795369141456</v>
+        <v>111.4599810909723</v>
       </c>
       <c r="P8" t="n">
-        <v>56.79645462570903</v>
+        <v>60.27901932621813</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>35.21184938244352</v>
+        <v>37.30423706204112</v>
       </c>
       <c r="L9" t="n">
-        <v>94.13712251807266</v>
+        <v>96.9505959699693</v>
       </c>
       <c r="M9" t="n">
-        <v>129.4059739105721</v>
+        <v>89.40150378175942</v>
       </c>
       <c r="N9" t="n">
-        <v>86.71839039715539</v>
+        <v>139.2987682391617</v>
       </c>
       <c r="O9" t="n">
-        <v>112.3843822630946</v>
+        <v>115.4673535658931</v>
       </c>
       <c r="P9" t="n">
-        <v>70.67002500760714</v>
+        <v>73.14438127765411</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.3073402833318255</v>
       </c>
       <c r="M10" t="n">
-        <v>1.912367806263347</v>
+        <v>3.615242200302589</v>
       </c>
       <c r="N10" t="n">
-        <v>9.803790828675574</v>
+        <v>11.466174675736</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K11" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L11" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M11" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N11" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O11" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P11" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K12" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L12" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M12" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N12" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O12" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P12" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M13" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N13" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O13" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P13" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K14" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L14" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M14" t="n">
-        <v>372.2834058662057</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N14" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O14" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P14" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>46.65087734093967</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K15" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L15" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M15" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N15" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O15" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P15" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M16" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N16" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O16" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P16" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K17" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L17" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M17" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N17" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O17" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P17" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K18" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L18" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M18" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N18" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O18" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P18" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L19" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M19" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N19" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O19" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P19" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K20" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L20" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M20" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N20" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O20" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P20" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K21" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L21" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M21" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N21" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O21" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P21" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L22" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M22" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N22" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O22" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P22" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38034,7 +38034,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037194</v>
